--- a/app/config/tables/stdGroundwaterFieldChemistry/forms/stdGroundwaterFieldChemistry/stdGroundwaterFieldChemistry.xlsx
+++ b/app/config/tables/stdGroundwaterFieldChemistry/forms/stdGroundwaterFieldChemistry/stdGroundwaterFieldChemistry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>clause</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Specific Conductivity (&amp;#xb5;S/cm)</t>
+  </si>
+  <si>
+    <t>integer_input_type.handlebars</t>
   </si>
   <si>
     <t>reading_oxygen</t>
@@ -580,7 +583,9 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -594,10 +599,10 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -617,10 +622,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -640,10 +645,10 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -663,10 +668,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -680,7 +685,7 @@
     <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -712,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -720,10 +725,10 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -744,54 +749,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="17">
-        <v>2.0160101003E10</v>
+        <v>2.0160101004E10</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -823,7 +828,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>22</v>
@@ -868,7 +873,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -877,7 +882,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -886,7 +891,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -894,7 +899,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>

--- a/app/config/tables/stdGroundwaterFieldChemistry/forms/stdGroundwaterFieldChemistry/stdGroundwaterFieldChemistry.xlsx
+++ b/app/config/tables/stdGroundwaterFieldChemistry/forms/stdGroundwaterFieldChemistry/stdGroundwaterFieldChemistry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>clause</t>
   </si>
@@ -119,16 +119,13 @@
     <t>decimal_input_type.handlebars</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>reading_conductivity</t>
   </si>
   <si>
     <t>Specific Conductivity (&amp;#xb5;S/cm)</t>
   </si>
   <si>
-    <t>integer_input_type.handlebars</t>
+    <t>string_input_type.handlebars</t>
   </si>
   <si>
     <t>reading_oxygen</t>
@@ -572,19 +569,19 @@
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -599,10 +596,10 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -622,10 +619,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -641,19 +638,19 @@
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -668,10 +665,10 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -685,7 +682,7 @@
     <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -717,7 +714,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -725,10 +722,10 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -749,54 +746,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="17">
-        <v>2.0160101004E10</v>
+        <v>2.0160101E7</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>22</v>
@@ -864,16 +861,16 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -882,7 +879,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -891,15 +888,15 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>

--- a/app/config/tables/stdGroundwaterFieldChemistry/forms/stdGroundwaterFieldChemistry/stdGroundwaterFieldChemistry.xlsx
+++ b/app/config/tables/stdGroundwaterFieldChemistry/forms/stdGroundwaterFieldChemistry/stdGroundwaterFieldChemistry.xlsx
@@ -17,148 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
     <t>clause</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
-  </si>
-  <si>
-    <t>branch_label</t>
+    <t>currTime</t>
   </si>
   <si>
     <t>condition</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
-    <t>display.new_instance_text</t>
-  </si>
-  <si>
-    <t>templatePath</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>Field Chemistry Readings</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>reading_id</t>
-  </si>
-  <si>
-    <t>calculates.currTime()</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>hidden_input_type.handlebars</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Field Water Quality Measurements</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>reading_time</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>time_input_type.handlebars</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>reading_temperature</t>
-  </si>
-  <si>
-    <t>Temperature (&amp;#x2103;)</t>
-  </si>
-  <si>
-    <t>decimal_input_type.handlebars</t>
-  </si>
-  <si>
-    <t>reading_conductivity</t>
-  </si>
-  <si>
-    <t>Specific Conductivity (&amp;#xb5;S/cm)</t>
-  </si>
-  <si>
-    <t>string_input_type.handlebars</t>
-  </si>
-  <si>
-    <t>reading_oxygen</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen (mg/L)</t>
-  </si>
-  <si>
-    <t>reading_ph</t>
-  </si>
-  <si>
-    <t>pH (S.U.)</t>
-  </si>
-  <si>
-    <t>reading_orp</t>
-  </si>
-  <si>
-    <t>ORP (mv)</t>
-  </si>
-  <si>
-    <t>reading_vol_purged</t>
-  </si>
-  <si>
-    <t>Volume Purged (gal)</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>calculation_name</t>
-  </si>
-  <si>
-    <t>currTime</t>
   </si>
   <si>
     <t>(function(){
@@ -169,9 +43,135 @@
 })()</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
+  </si>
+  <si>
+    <t>display.new_instance_text</t>
+  </si>
+  <si>
+    <t>templatePath</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>Field Chemistry Readings</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>reading_id</t>
+  </si>
+  <si>
+    <t>calculates.currTime()</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>hidden_input_type.handlebars</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Field Water Quality Measurements</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>reading_time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>time_input_type.handlebars</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>reading_temperature</t>
+  </si>
+  <si>
+    <t>Temperature (&amp;#x2103;)</t>
+  </si>
+  <si>
+    <t>decimal_input_type.handlebars</t>
+  </si>
+  <si>
+    <t>reading_conductivity</t>
+  </si>
+  <si>
+    <t>Specific Conductivity (&amp;#xb5;S/cm)</t>
+  </si>
+  <si>
+    <t>string_input_type.handlebars</t>
+  </si>
+  <si>
+    <t>reading_oxygen</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen (mg/L)</t>
+  </si>
+  <si>
     <t>setting_name</t>
   </si>
   <si>
+    <t>reading_ph</t>
+  </si>
+  <si>
+    <t>pH (S.U.)</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>reading_orp</t>
+  </si>
+  <si>
+    <t>ORP (mv)</t>
+  </si>
+  <si>
+    <t>reading_vol_purged</t>
+  </si>
+  <si>
+    <t>Volume Purged (gal)</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -184,6 +184,9 @@
     <t>stdGroundwaterFieldChemistry</t>
   </si>
   <si>
+    <t>end screen</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>instance_name</t>
-  </si>
-  <si>
-    <t>parent_id</t>
   </si>
 </sst>
 </file>
@@ -212,6 +212,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -219,7 +220,6 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,52 +251,52 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -307,23 +307,23 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -339,35 +339,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -392,28 +392,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -423,26 +423,26 @@
         <v>13</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -455,16 +455,16 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -479,15 +479,15 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="3"/>
       <c r="J4" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -501,15 +501,15 @@
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="7"/>
       <c r="G5" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -520,22 +520,22 @@
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -543,22 +543,22 @@
     </row>
     <row r="7">
       <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -566,22 +566,22 @@
     </row>
     <row r="8">
       <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -592,19 +592,19 @@
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -615,19 +615,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -638,19 +638,19 @@
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -661,19 +661,19 @@
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -682,13 +682,13 @@
     <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -713,19 +713,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -745,13 +745,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>49</v>
+      <c r="A1" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -759,14 +759,14 @@
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="17">
         <v>2.0160101E7</v>
@@ -774,29 +774,29 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="16" t="s">
-        <v>57</v>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
+      <c r="A6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -817,89 +817,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -924,7 +924,7 @@
       <c r="B26" s="3"/>
     </row>
     <row r="27">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28">
       <c r="B28" s="4"/>
